--- a/RAAL/Production/Input/GHI_2024-02-04.xlsx
+++ b/RAAL/Production/Input/GHI_2024-02-04.xlsx
@@ -59,10 +59,10 @@
     <t>+02:00</t>
   </si>
   <si>
-    <t>2024-02-04T07:44:54</t>
-  </si>
-  <si>
-    <t>2024-02-04T17:34:39</t>
+    <t>2024-02-04T07:40:20</t>
+  </si>
+  <si>
+    <t>2024-02-04T17:30:04</t>
   </si>
   <si>
     <t>hour</t>
@@ -472,7 +472,7 @@
         <v>46.073272</v>
       </c>
       <c r="B2">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2617.83</v>
+        <v>2618.52</v>
       </c>
       <c r="H2">
-        <v>5815.21</v>
+        <v>5818.4</v>
       </c>
       <c r="I2">
-        <v>681.92</v>
+        <v>681.5700000000001</v>
       </c>
       <c r="J2">
-        <v>655.16</v>
+        <v>654.63</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>655.16</v>
+        <v>654.63</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +564,7 @@
         <v>46.073272</v>
       </c>
       <c r="B2">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -605,7 +605,7 @@
         <v>46.073272</v>
       </c>
       <c r="B3">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -646,7 +646,7 @@
         <v>46.073272</v>
       </c>
       <c r="B4">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -687,7 +687,7 @@
         <v>46.073272</v>
       </c>
       <c r="B5">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -728,7 +728,7 @@
         <v>46.073272</v>
       </c>
       <c r="B6">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -769,7 +769,7 @@
         <v>46.073272</v>
       </c>
       <c r="B7">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -810,7 +810,7 @@
         <v>46.073272</v>
       </c>
       <c r="B8">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -851,7 +851,7 @@
         <v>46.073272</v>
       </c>
       <c r="B9">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -869,22 +869,22 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>0.54</v>
+        <v>1.69</v>
       </c>
       <c r="I9">
-        <v>4.7</v>
+        <v>15.57</v>
       </c>
       <c r="J9">
-        <v>1.88</v>
+        <v>3.29</v>
       </c>
       <c r="K9">
-        <v>0.15</v>
+        <v>0.42</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.15</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -892,7 +892,7 @@
         <v>46.073272</v>
       </c>
       <c r="B10">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -910,22 +910,22 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>69.43000000000001</v>
+        <v>79.29000000000001</v>
       </c>
       <c r="I10">
-        <v>332.67</v>
+        <v>362.64</v>
       </c>
       <c r="J10">
-        <v>39.07</v>
+        <v>41.94</v>
       </c>
       <c r="K10">
-        <v>18.05</v>
+        <v>19.82</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.05</v>
+        <v>19.82</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -933,7 +933,7 @@
         <v>46.073272</v>
       </c>
       <c r="B11">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -951,22 +951,22 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>205.67</v>
+        <v>215.94</v>
       </c>
       <c r="I11">
-        <v>589.27</v>
+        <v>601.54</v>
       </c>
       <c r="J11">
-        <v>66.56999999999999</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="K11">
-        <v>51.42</v>
+        <v>53.99</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>51.42</v>
+        <v>53.99</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -974,7 +974,7 @@
         <v>46.073272</v>
       </c>
       <c r="B12">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -992,22 +992,22 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>327.24</v>
+        <v>335.24</v>
       </c>
       <c r="I12">
-        <v>703.71</v>
+        <v>709.96</v>
       </c>
       <c r="J12">
-        <v>81.72</v>
+        <v>82.52</v>
       </c>
       <c r="K12">
-        <v>81.81</v>
+        <v>83.81</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>81.81</v>
+        <v>83.81</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1015,7 +1015,7 @@
         <v>46.073272</v>
       </c>
       <c r="B13">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>410.99</v>
+        <v>415.56</v>
       </c>
       <c r="I13">
-        <v>759.63</v>
+        <v>762.61</v>
       </c>
       <c r="J13">
-        <v>90.05</v>
+        <v>90.41</v>
       </c>
       <c r="K13">
-        <v>102.75</v>
+        <v>103.89</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>102.75</v>
+        <v>103.89</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1056,7 +1056,7 @@
         <v>46.073272</v>
       </c>
       <c r="B14">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>445.95</v>
+        <v>446.56</v>
       </c>
       <c r="I14">
-        <v>779.54</v>
+        <v>780.15</v>
       </c>
       <c r="J14">
-        <v>93.19</v>
+        <v>93.18000000000001</v>
       </c>
       <c r="K14">
-        <v>111.49</v>
+        <v>111.64</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>111.49</v>
+        <v>111.64</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1097,7 +1097,7 @@
         <v>46.073272</v>
       </c>
       <c r="B15">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>428.05</v>
+        <v>424.64</v>
       </c>
       <c r="I15">
-        <v>769.61</v>
+        <v>767.9400000000001</v>
       </c>
       <c r="J15">
-        <v>91.59</v>
+        <v>91.22</v>
       </c>
       <c r="K15">
-        <v>107.01</v>
+        <v>106.16</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>107.01</v>
+        <v>106.16</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1138,7 +1138,7 @@
         <v>46.073272</v>
       </c>
       <c r="B16">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1156,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>359.37</v>
+        <v>352.33</v>
       </c>
       <c r="I16">
-        <v>726.87</v>
+        <v>722.3</v>
       </c>
       <c r="J16">
-        <v>85.04000000000001</v>
+        <v>84.27</v>
       </c>
       <c r="K16">
-        <v>89.84</v>
+        <v>88.08</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>89.84</v>
+        <v>88.08</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1179,7 +1179,7 @@
         <v>46.073272</v>
       </c>
       <c r="B17">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>248.41</v>
+        <v>238.69</v>
       </c>
       <c r="I17">
-        <v>635.91</v>
+        <v>626.37</v>
       </c>
       <c r="J17">
-        <v>72.42</v>
+        <v>71.11</v>
       </c>
       <c r="K17">
-        <v>62.1</v>
+        <v>59.67</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>62.1</v>
+        <v>59.67</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1220,7 +1220,7 @@
         <v>46.073272</v>
       </c>
       <c r="B18">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1238,22 +1238,22 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>112.84</v>
+        <v>102.46</v>
       </c>
       <c r="I18">
-        <v>444.36</v>
+        <v>421.89</v>
       </c>
       <c r="J18">
-        <v>50.19</v>
+        <v>47.82</v>
       </c>
       <c r="K18">
-        <v>28.21</v>
+        <v>25.61</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>28.21</v>
+        <v>25.61</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1261,7 +1261,7 @@
         <v>46.073272</v>
       </c>
       <c r="B19">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1279,22 +1279,22 @@
         <v>17</v>
       </c>
       <c r="H19">
-        <v>9.34</v>
+        <v>6.12</v>
       </c>
       <c r="I19">
-        <v>68.95999999999999</v>
+        <v>47.43</v>
       </c>
       <c r="J19">
-        <v>10.19</v>
+        <v>7.8</v>
       </c>
       <c r="K19">
-        <v>2.33</v>
+        <v>1.53</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.33</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1302,7 +1302,7 @@
         <v>46.073272</v>
       </c>
       <c r="B20">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -1343,7 +1343,7 @@
         <v>46.073272</v>
       </c>
       <c r="B21">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1384,7 +1384,7 @@
         <v>46.073272</v>
       </c>
       <c r="B22">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1425,7 +1425,7 @@
         <v>46.073272</v>
       </c>
       <c r="B23">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1466,7 +1466,7 @@
         <v>46.073272</v>
       </c>
       <c r="B24">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1507,7 +1507,7 @@
         <v>46.073272</v>
       </c>
       <c r="B25">
-        <v>23.580489</v>
+        <v>24.724419</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
